--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl2-Ccr5.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H2">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J2">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N2">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P2">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q2">
-        <v>1.426292853565111</v>
+        <v>2.280040037264</v>
       </c>
       <c r="R2">
-        <v>12.836635682086</v>
+        <v>20.520360335376</v>
       </c>
       <c r="S2">
-        <v>1.70767085641804E-05</v>
+        <v>8.094554105959099E-05</v>
       </c>
       <c r="T2">
-        <v>1.70767085641804E-05</v>
+        <v>8.094554105959099E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H3">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J3">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N3">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O3">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P3">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q3">
-        <v>577.1658260124634</v>
+        <v>665.5857462690701</v>
       </c>
       <c r="R3">
-        <v>5194.49243411217</v>
+        <v>5990.271716421631</v>
       </c>
       <c r="S3">
-        <v>0.006910286747482011</v>
+        <v>0.02362949661969612</v>
       </c>
       <c r="T3">
-        <v>0.00691028674748201</v>
+        <v>0.02362949661969612</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H4">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J4">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N4">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P4">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q4">
-        <v>0.6245698806355555</v>
+        <v>0.4497304302980001</v>
       </c>
       <c r="R4">
-        <v>5.62112892572</v>
+        <v>4.047573872682</v>
       </c>
       <c r="S4">
-        <v>7.477845663265416E-06</v>
+        <v>1.596624288015482E-05</v>
       </c>
       <c r="T4">
-        <v>7.477845663265416E-06</v>
+        <v>1.596624288015482E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.81256866666667</v>
+        <v>9.380719000000001</v>
       </c>
       <c r="H5">
-        <v>35.437706</v>
+        <v>28.142157</v>
       </c>
       <c r="I5">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="J5">
-        <v>0.01569049050213386</v>
+        <v>0.03679977590837273</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N5">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O5">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P5">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q5">
-        <v>731.2954856583498</v>
+        <v>368.2451305220397</v>
       </c>
       <c r="R5">
-        <v>6581.659370925148</v>
+        <v>3314.206174698357</v>
       </c>
       <c r="S5">
-        <v>0.008755649200424404</v>
+        <v>0.01307336750473686</v>
       </c>
       <c r="T5">
-        <v>0.008755649200424402</v>
+        <v>0.01307336750473686</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>271.318122</v>
       </c>
       <c r="I6">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J6">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N6">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P6">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q6">
-        <v>10.919981627798</v>
+        <v>21.981832486944</v>
       </c>
       <c r="R6">
-        <v>98.279834650182</v>
+        <v>197.836492382496</v>
       </c>
       <c r="S6">
-        <v>0.0001307426755438047</v>
+        <v>0.0007803947716076673</v>
       </c>
       <c r="T6">
-        <v>0.0001307426755438047</v>
+        <v>0.0007803947716076673</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>271.318122</v>
       </c>
       <c r="I7">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J7">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N7">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O7">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P7">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q7">
-        <v>4418.896302042811</v>
+        <v>6416.902396916221</v>
       </c>
       <c r="R7">
-        <v>39770.06671838529</v>
+        <v>57752.12157224599</v>
       </c>
       <c r="S7">
-        <v>0.05290652907409716</v>
+        <v>0.2278116296011461</v>
       </c>
       <c r="T7">
-        <v>0.05290652907409716</v>
+        <v>0.2278116296011461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>271.318122</v>
       </c>
       <c r="I8">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J8">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N8">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P8">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q8">
-        <v>4.78183116796</v>
+        <v>4.335844468308</v>
       </c>
       <c r="R8">
-        <v>43.03648051164001</v>
+        <v>39.02260021477201</v>
       </c>
       <c r="S8">
-        <v>5.725187296161374E-05</v>
+        <v>0.0001539303129337057</v>
       </c>
       <c r="T8">
-        <v>5.725187296161375E-05</v>
+        <v>0.0001539303129337057</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>271.318122</v>
       </c>
       <c r="I9">
-        <v>0.1201295144865696</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="J9">
-        <v>0.1201295144865697</v>
+        <v>0.3547860986448385</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N9">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O9">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P9">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q9">
-        <v>5598.943616607165</v>
+        <v>3550.245890849258</v>
       </c>
       <c r="R9">
-        <v>50390.49254946448</v>
+        <v>31952.21301764332</v>
       </c>
       <c r="S9">
-        <v>0.06703499086396707</v>
+        <v>0.1260401439591511</v>
       </c>
       <c r="T9">
-        <v>0.06703499086396707</v>
+        <v>0.1260401439591511</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H10">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J10">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N10">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P10">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q10">
-        <v>46.08137073391866</v>
+        <v>24.349209836688</v>
       </c>
       <c r="R10">
-        <v>414.732336605268</v>
+        <v>219.142888530192</v>
       </c>
       <c r="S10">
-        <v>0.0005517226958644069</v>
+        <v>0.0008644409450674977</v>
       </c>
       <c r="T10">
-        <v>0.0005517226958644069</v>
+        <v>0.0008644409450674977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H11">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I11">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J11">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N11">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O11">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P11">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q11">
-        <v>18647.35726393694</v>
+        <v>7107.983515790191</v>
       </c>
       <c r="R11">
-        <v>167826.2153754325</v>
+        <v>63971.85164211172</v>
       </c>
       <c r="S11">
-        <v>0.2232609416028787</v>
+        <v>0.2523462580151487</v>
       </c>
       <c r="T11">
-        <v>0.2232609416028787</v>
+        <v>0.2523462580151487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H12">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I12">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J12">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N12">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P12">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q12">
-        <v>20.17891076637333</v>
+        <v>4.802801897466001</v>
       </c>
       <c r="R12">
-        <v>181.61019689736</v>
+        <v>43.225217077194</v>
       </c>
       <c r="S12">
-        <v>0.0002415979140880053</v>
+        <v>0.0001705081454003439</v>
       </c>
       <c r="T12">
-        <v>0.0002415979140880053</v>
+        <v>0.0001705081454003439</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>381.646276</v>
+        <v>100.179423</v>
       </c>
       <c r="H13">
-        <v>1144.938828</v>
+        <v>300.538269</v>
       </c>
       <c r="I13">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="J13">
-        <v>0.5069360811971936</v>
+        <v>0.3929954960840508</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N13">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O13">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P13">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q13">
-        <v>23627.0540839004</v>
+        <v>3932.596712283741</v>
       </c>
       <c r="R13">
-        <v>212643.4867551037</v>
+        <v>35393.37041055367</v>
       </c>
       <c r="S13">
-        <v>0.2828818189843624</v>
+        <v>0.1396142889784342</v>
       </c>
       <c r="T13">
-        <v>0.2828818189843624</v>
+        <v>0.1396142889784342</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H14">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I14">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J14">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N14">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P14">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q14">
-        <v>0.3391772909796666</v>
+        <v>0.3469941993173334</v>
       </c>
       <c r="R14">
-        <v>3.052595618817</v>
+        <v>3.122947793856</v>
       </c>
       <c r="S14">
-        <v>4.060899369418014E-06</v>
+        <v>1.231892104929248E-05</v>
       </c>
       <c r="T14">
-        <v>4.060899369418014E-06</v>
+        <v>1.231892104929248E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H15">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I15">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J15">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N15">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O15">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P15">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q15">
-        <v>137.251996196735</v>
+        <v>101.2940077055867</v>
       </c>
       <c r="R15">
-        <v>1235.267965770615</v>
+        <v>911.6460693502802</v>
       </c>
       <c r="S15">
-        <v>0.001643289688401039</v>
+        <v>0.003596120298686542</v>
       </c>
       <c r="T15">
-        <v>0.001643289688401039</v>
+        <v>0.003596120298686542</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H16">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I16">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J16">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N16">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P16">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q16">
-        <v>0.1485248415933333</v>
+        <v>0.06844346942133335</v>
       </c>
       <c r="R16">
-        <v>1.33672357434</v>
+        <v>0.6159912247920001</v>
       </c>
       <c r="S16">
-        <v>1.778257128675032E-06</v>
+        <v>2.429866832932247E-06</v>
       </c>
       <c r="T16">
-        <v>1.778257128675032E-06</v>
+        <v>2.429866832932247E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.809069</v>
+        <v>1.427630666666667</v>
       </c>
       <c r="H17">
-        <v>8.427206999999999</v>
+        <v>4.282892</v>
       </c>
       <c r="I17">
-        <v>0.003731252000144026</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="J17">
-        <v>0.003731252000144027</v>
+        <v>0.005600475679236752</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N17">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O17">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P17">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q17">
-        <v>173.9045534101006</v>
+        <v>56.04240369889911</v>
       </c>
       <c r="R17">
-        <v>1565.140980690906</v>
+        <v>504.381633290092</v>
       </c>
       <c r="S17">
-        <v>0.002082123155244895</v>
+        <v>0.001989606592667984</v>
       </c>
       <c r="T17">
-        <v>0.002082123155244895</v>
+        <v>0.001989606592667985</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H18">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I18">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J18">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1207436666666667</v>
+        <v>0.243056</v>
       </c>
       <c r="N18">
-        <v>0.362231</v>
+        <v>0.729168</v>
       </c>
       <c r="O18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="P18">
-        <v>0.001088347656299082</v>
+        <v>0.002199620488481675</v>
       </c>
       <c r="Q18">
-        <v>32.134915292894</v>
+        <v>12.999910437888</v>
       </c>
       <c r="R18">
-        <v>289.214237636046</v>
+        <v>116.999193940992</v>
       </c>
       <c r="S18">
-        <v>0.0003847446769572723</v>
+        <v>0.0004615203096976261</v>
       </c>
       <c r="T18">
-        <v>0.0003847446769572722</v>
+        <v>0.0004615203096976261</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H19">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I19">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J19">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>48.86031500000001</v>
+        <v>70.95253000000001</v>
       </c>
       <c r="N19">
-        <v>146.580945</v>
+        <v>212.85759</v>
       </c>
       <c r="O19">
-        <v>0.4404124107236949</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="P19">
-        <v>0.4404124107236948</v>
+        <v>0.6421097964979703</v>
       </c>
       <c r="Q19">
-        <v>13003.76348553093</v>
+        <v>3794.91366327744</v>
       </c>
       <c r="R19">
-        <v>117033.8713697784</v>
+        <v>34154.22296949696</v>
       </c>
       <c r="S19">
-        <v>0.1556913636108359</v>
+        <v>0.1347262919632929</v>
       </c>
       <c r="T19">
-        <v>0.1556913636108359</v>
+        <v>0.1347262919632929</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H20">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I20">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J20">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M20">
-        <v>0.05287333333333333</v>
+        <v>0.04794200000000001</v>
       </c>
       <c r="N20">
-        <v>0.15862</v>
+        <v>0.143826</v>
       </c>
       <c r="O20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="P20">
-        <v>0.0004765845696314243</v>
+        <v>0.0004338679376719292</v>
       </c>
       <c r="Q20">
-        <v>14.07179469388</v>
+        <v>2.564189759616</v>
       </c>
       <c r="R20">
-        <v>126.64615224492</v>
+        <v>23.077707836544</v>
       </c>
       <c r="S20">
-        <v>0.0001684786797898648</v>
+        <v>9.10333696247926E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001684786797898648</v>
+        <v>9.10333696247926E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>266.141622</v>
+        <v>53.48524799999999</v>
       </c>
       <c r="H21">
-        <v>798.4248660000001</v>
+        <v>160.455744</v>
       </c>
       <c r="I21">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="J21">
-        <v>0.3535126618139589</v>
+        <v>0.2098181536835013</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>61.90825266666667</v>
+        <v>39.25553366666666</v>
       </c>
       <c r="N21">
-        <v>185.724758</v>
+        <v>117.766601</v>
       </c>
       <c r="O21">
-        <v>0.5580226570503747</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="P21">
-        <v>0.5580226570503746</v>
+        <v>0.3552567150758761</v>
       </c>
       <c r="Q21">
-        <v>16476.36277989249</v>
+        <v>2099.591953534015</v>
       </c>
       <c r="R21">
-        <v>148287.2650190324</v>
+        <v>18896.32758180614</v>
       </c>
       <c r="S21">
-        <v>0.1972680748463759</v>
+        <v>0.07453930804088599</v>
       </c>
       <c r="T21">
-        <v>0.1972680748463758</v>
+        <v>0.074539308040886</v>
       </c>
     </row>
   </sheetData>
